--- a/Tables/Sources/gameplay/Role/RoleConfig.xlsx
+++ b/Tables/Sources/gameplay/Role/RoleConfig.xlsx
@@ -105,11 +105,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -127,76 +127,99 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -210,17 +233,16 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -228,37 +250,15 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,37 +286,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -328,55 +400,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -388,49 +412,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
+        <fgColor theme="8" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,31 +460,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,8 +498,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -522,8 +552,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -553,55 +592,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,137 +610,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="17" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -749,9 +749,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1105,7 +1102,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1114,10 +1111,10 @@
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
     <col min="3" max="3" width="39.75" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="4" customWidth="1"/>
-    <col min="6" max="9" width="10.125" style="4" customWidth="1"/>
-    <col min="10" max="10" width="13.125" style="4" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="4"/>
+    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
+    <col min="6" max="9" width="10.125" style="2" customWidth="1"/>
+    <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
@@ -1249,98 +1246,98 @@
       </c>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="4">
+      <c r="A5" s="2">
         <v>1001</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="C5" s="4" t="s">
+      <c r="C5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="2">
         <v>250</v>
       </c>
-      <c r="E5" s="4">
+      <c r="E5" s="2">
         <v>30</v>
       </c>
-      <c r="F5" s="4">
+      <c r="F5" s="2">
         <v>1001</v>
       </c>
-      <c r="G5" s="4">
+      <c r="G5" s="2">
         <v>1002</v>
       </c>
-      <c r="H5" s="4">
+      <c r="H5" s="2">
         <v>1003</v>
       </c>
-      <c r="I5" s="4">
+      <c r="I5" s="2">
         <v>1004</v>
       </c>
-      <c r="J5" s="4">
+      <c r="J5" s="2">
         <v>1001</v>
       </c>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="4">
+      <c r="A6" s="2">
         <v>1002</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="2">
         <v>250</v>
       </c>
-      <c r="E6" s="4">
+      <c r="E6" s="2">
         <v>30</v>
       </c>
-      <c r="F6" s="4">
+      <c r="F6" s="2">
         <v>1001</v>
       </c>
-      <c r="G6" s="4">
+      <c r="G6" s="2">
         <v>1002</v>
       </c>
-      <c r="H6" s="4">
+      <c r="H6" s="2">
         <v>1003</v>
       </c>
-      <c r="I6" s="4">
+      <c r="I6" s="2">
         <v>1004</v>
       </c>
-      <c r="J6" s="4">
+      <c r="J6" s="2">
         <v>1002</v>
       </c>
     </row>
     <row r="7" spans="1:10">
-      <c r="A7" s="4">
+      <c r="A7" s="2">
         <v>1003</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="2">
         <v>250</v>
       </c>
-      <c r="E7" s="4">
+      <c r="E7" s="2">
         <v>30</v>
       </c>
-      <c r="F7" s="4">
+      <c r="F7" s="2">
         <v>1001</v>
       </c>
-      <c r="G7" s="4">
+      <c r="G7" s="2">
         <v>1002</v>
       </c>
-      <c r="H7" s="4">
+      <c r="H7" s="2">
         <v>1003</v>
       </c>
-      <c r="I7" s="4">
+      <c r="I7" s="2">
         <v>1004</v>
       </c>
-      <c r="J7" s="4">
+      <c r="J7" s="2">
         <v>1003</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Role/RoleConfig.xlsx
+++ b/Tables/Sources/gameplay/Role/RoleConfig.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="33">
   <si>
     <t>角色ID</t>
   </si>
@@ -49,6 +49,15 @@
     <t>升星材料</t>
   </si>
   <si>
+    <t>技能1</t>
+  </si>
+  <si>
+    <t>技能2</t>
+  </si>
+  <si>
+    <t>技能3</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -86,6 +95,15 @@
   </si>
   <si>
     <t>SpiritId</t>
+  </si>
+  <si>
+    <t>Skill1</t>
+  </si>
+  <si>
+    <t>Skill2</t>
+  </si>
+  <si>
+    <t>Skill3</t>
   </si>
   <si>
     <t>RoleA</t>
@@ -105,11 +123,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -128,68 +146,39 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -201,9 +190,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -217,6 +206,45 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -225,11 +253,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -240,32 +275,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -286,187 +304,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -498,8 +516,58 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -534,61 +602,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -598,10 +616,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -610,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1097,12 +1115,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:M7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="E20" sqref="E20"/>
+      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
@@ -1117,7 +1135,7 @@
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1148,112 +1166,148 @@
       <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:13">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
+      </c>
+      <c r="K4" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="M4" s="1" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:13">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2">
         <v>250</v>
@@ -1276,16 +1330,25 @@
       <c r="J5" s="2">
         <v>1001</v>
       </c>
+      <c r="K5" s="2">
+        <v>10011</v>
+      </c>
+      <c r="L5" s="2">
+        <v>10012</v>
+      </c>
+      <c r="M5" s="2">
+        <v>10013</v>
+      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:13">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D6" s="2">
         <v>250</v>
@@ -1308,16 +1371,25 @@
       <c r="J6" s="2">
         <v>1002</v>
       </c>
+      <c r="K6" s="2">
+        <v>10011</v>
+      </c>
+      <c r="L6" s="2">
+        <v>10012</v>
+      </c>
+      <c r="M6" s="2">
+        <v>10013</v>
+      </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:13">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2">
         <v>250</v>
@@ -1339,6 +1411,15 @@
       </c>
       <c r="J7" s="2">
         <v>1003</v>
+      </c>
+      <c r="K7" s="2">
+        <v>10011</v>
+      </c>
+      <c r="L7" s="2">
+        <v>10012</v>
+      </c>
+      <c r="M7" s="2">
+        <v>10013</v>
       </c>
     </row>
   </sheetData>

--- a/Tables/Sources/gameplay/Role/RoleConfig.xlsx
+++ b/Tables/Sources/gameplay/Role/RoleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowHeight="17930"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -124,8 +124,8 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
@@ -159,6 +159,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color theme="3"/>
@@ -167,10 +181,65 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -183,107 +252,38 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -304,109 +304,169 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,73 +478,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -513,11 +513,65 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -546,21 +600,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -571,55 +610,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="14" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -628,133 +628,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="4" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="21" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="13" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="16" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1120,22 +1120,22 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="I9" sqref="I9"/>
+      <selection pane="bottomLeft" activeCell="V19" sqref="V19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9.875" style="2" customWidth="1"/>
+    <col min="1" max="1" width="9.87272727272727" style="2" customWidth="1"/>
     <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.75" style="3" customWidth="1"/>
+    <col min="3" max="3" width="39.7545454545455" style="3" customWidth="1"/>
     <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.875" style="2" customWidth="1"/>
-    <col min="6" max="9" width="10.125" style="2" customWidth="1"/>
+    <col min="5" max="5" width="10.8727272727273" style="2" customWidth="1"/>
+    <col min="6" max="9" width="10.1272727272727" style="2" customWidth="1"/>
     <col min="10" max="10" width="11.5" style="2" customWidth="1"/>
     <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:13">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1176,7 +1176,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:13">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -1217,7 +1217,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:13">
       <c r="A3" s="1" t="s">
         <v>14</v>
       </c>
@@ -1258,7 +1258,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:13">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:13">
       <c r="A4" s="1" t="s">
         <v>16</v>
       </c>

--- a/Tables/Sources/gameplay/Role/RoleConfig.xlsx
+++ b/Tables/Sources/gameplay/Role/RoleConfig.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Working\ModooProject\LegendOfPirate\Tables\Sources\gameplay\Role\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCEF1A73-2B4B-4905-9FBC-916DC53F09D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5360" yWindow="5180" windowWidth="28800" windowHeight="15560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>角色ID</t>
   </si>
@@ -40,21 +34,18 @@
     <t>初始攻击</t>
   </si>
   <si>
-    <t>装备1ID</t>
-  </si>
-  <si>
-    <t>装备2ID</t>
-  </si>
-  <si>
-    <t>装备3ID</t>
-  </si>
-  <si>
-    <t>装备4ID</t>
+    <t>血量/攻击成长系数</t>
+  </si>
+  <si>
+    <t>装备</t>
   </si>
   <si>
     <t>升星材料</t>
   </si>
   <si>
+    <t>技能</t>
+  </si>
+  <si>
     <t>A</t>
   </si>
   <si>
@@ -64,6 +55,9 @@
     <t>string</t>
   </si>
   <si>
+    <t>float</t>
+  </si>
+  <si>
     <t>RoleId</t>
   </si>
   <si>
@@ -79,55 +73,23 @@
     <t>InitAtk</t>
   </si>
   <si>
-    <t>Equip1Id</t>
-  </si>
-  <si>
-    <t>Equip2Id</t>
-  </si>
-  <si>
-    <t>Equip3Id</t>
-  </si>
-  <si>
-    <t>Equip4Id</t>
+    <t>GrowRate</t>
+  </si>
+  <si>
+    <t>EquipId</t>
   </si>
   <si>
     <t>SpiritId</t>
   </si>
   <si>
-    <t>RoleA</t>
-  </si>
-  <si>
-    <t>A good guy.</t>
-  </si>
-  <si>
-    <t>RoleB</t>
-  </si>
-  <si>
-    <t>RoleC</t>
-  </si>
-  <si>
-    <t>技能</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
-      <t>10011</t>
-    </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <b/>
+        <sz val="9"/>
         <color theme="1"/>
-        <rFont val="宋体"/>
-        <family val="3"/>
+        <rFont val="微软雅黑"/>
         <charset val="134"/>
-        <scheme val="minor"/>
       </rPr>
-      <t>|10012|10013</t>
-    </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <r>
       <t>Skill</t>
     </r>
     <r>
@@ -136,34 +98,42 @@
         <sz val="9"/>
         <color theme="1"/>
         <rFont val="微软雅黑"/>
-        <family val="2"/>
         <charset val="134"/>
       </rPr>
       <t>Id</t>
     </r>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>string</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10021|10022|10023</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>10031|10032|10033</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>RoleA</t>
+  </si>
+  <si>
+    <t>A good guy.</t>
+  </si>
+  <si>
+    <t>1001;1002;1003;1004</t>
+  </si>
+  <si>
+    <t>10011;10012;10013</t>
+  </si>
+  <si>
+    <t>RoleB</t>
+  </si>
+  <si>
+    <t>RoleC</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="178" formatCode="0_ "/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -179,29 +149,165 @@
       <charset val="134"/>
     </font>
     <font>
-      <sz val="9"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <family val="3"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="9"/>
       <color theme="1"/>
       <name val="微软雅黑"/>
-      <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -210,12 +316,198 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <fgColor theme="0" tint="-0.349986266670736"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -238,9 +530,251 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -250,27 +784,71 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="49">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="货币[0]" xfId="1" builtinId="7"/>
+    <cellStyle name="20% - 强调文字颜色 3" xfId="2" builtinId="38"/>
+    <cellStyle name="输入" xfId="3" builtinId="20"/>
+    <cellStyle name="货币" xfId="4" builtinId="4"/>
+    <cellStyle name="千位分隔[0]" xfId="5" builtinId="6"/>
+    <cellStyle name="40% - 强调文字颜色 3" xfId="6" builtinId="39"/>
+    <cellStyle name="差" xfId="7" builtinId="27"/>
+    <cellStyle name="千位分隔" xfId="8" builtinId="3"/>
+    <cellStyle name="60% - 强调文字颜色 3" xfId="9" builtinId="40"/>
+    <cellStyle name="超链接" xfId="10" builtinId="8"/>
+    <cellStyle name="百分比" xfId="11" builtinId="5"/>
+    <cellStyle name="已访问的超链接" xfId="12" builtinId="9"/>
+    <cellStyle name="注释" xfId="13" builtinId="10"/>
+    <cellStyle name="60% - 强调文字颜色 2" xfId="14" builtinId="36"/>
+    <cellStyle name="标题 4" xfId="15" builtinId="19"/>
+    <cellStyle name="警告文本" xfId="16" builtinId="11"/>
+    <cellStyle name="标题" xfId="17" builtinId="15"/>
+    <cellStyle name="解释性文本" xfId="18" builtinId="53"/>
+    <cellStyle name="标题 1" xfId="19" builtinId="16"/>
+    <cellStyle name="标题 2" xfId="20" builtinId="17"/>
+    <cellStyle name="60% - 强调文字颜色 1" xfId="21" builtinId="32"/>
+    <cellStyle name="标题 3" xfId="22" builtinId="18"/>
+    <cellStyle name="60% - 强调文字颜色 4" xfId="23" builtinId="44"/>
+    <cellStyle name="输出" xfId="24" builtinId="21"/>
+    <cellStyle name="计算" xfId="25" builtinId="22"/>
+    <cellStyle name="检查单元格" xfId="26" builtinId="23"/>
+    <cellStyle name="20% - 强调文字颜色 6" xfId="27" builtinId="50"/>
+    <cellStyle name="强调文字颜色 2" xfId="28" builtinId="33"/>
+    <cellStyle name="链接单元格" xfId="29" builtinId="24"/>
+    <cellStyle name="汇总" xfId="30" builtinId="25"/>
+    <cellStyle name="好" xfId="31" builtinId="26"/>
+    <cellStyle name="适中" xfId="32" builtinId="28"/>
+    <cellStyle name="20% - 强调文字颜色 5" xfId="33" builtinId="46"/>
+    <cellStyle name="强调文字颜色 1" xfId="34" builtinId="29"/>
+    <cellStyle name="20% - 强调文字颜色 1" xfId="35" builtinId="30"/>
+    <cellStyle name="40% - 强调文字颜色 1" xfId="36" builtinId="31"/>
+    <cellStyle name="20% - 强调文字颜色 2" xfId="37" builtinId="34"/>
+    <cellStyle name="40% - 强调文字颜色 2" xfId="38" builtinId="35"/>
+    <cellStyle name="强调文字颜色 3" xfId="39" builtinId="37"/>
+    <cellStyle name="强调文字颜色 4" xfId="40" builtinId="41"/>
+    <cellStyle name="20% - 强调文字颜色 4" xfId="41" builtinId="42"/>
+    <cellStyle name="40% - 强调文字颜色 4" xfId="42" builtinId="43"/>
+    <cellStyle name="强调文字颜色 5" xfId="43" builtinId="45"/>
+    <cellStyle name="40% - 强调文字颜色 5" xfId="44" builtinId="47"/>
+    <cellStyle name="60% - 强调文字颜色 5" xfId="45" builtinId="48"/>
+    <cellStyle name="强调文字颜色 6" xfId="46" builtinId="49"/>
+    <cellStyle name="40% - 强调文字颜色 6" xfId="47" builtinId="51"/>
+    <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
     </ext>
   </extLst>
 </styleSheet>
@@ -555,33 +1133,34 @@
     </a:fmtScheme>
   </a:themeElements>
   <a:objectDefaults/>
-  <a:extraClrSchemeLst/>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K7"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I22" sqref="I22"/>
+      <selection/>
+      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="9.90625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="16" style="3" customWidth="1"/>
-    <col min="3" max="3" width="39.7265625" style="3" customWidth="1"/>
-    <col min="4" max="4" width="10" style="2" customWidth="1"/>
-    <col min="5" max="5" width="10.90625" style="2" customWidth="1"/>
-    <col min="6" max="9" width="10.08984375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="11.453125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="24.453125" style="2" customWidth="1"/>
-    <col min="12" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.625" style="3" customWidth="1"/>
+    <col min="4" max="5" width="7.375" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.375" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -609,84 +1188,66 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="1" t="s">
-        <v>27</v>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>10</v>
+      <c r="I3" s="4" t="s">
+        <v>11</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="K3" s="5" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" s="1" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -711,25 +1272,19 @@
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="5" t="s">
-        <v>29</v>
-      </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>23</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>24</v>
       </c>
       <c r="D5" s="2">
         <v>250</v>
@@ -738,33 +1293,27 @@
         <v>30</v>
       </c>
       <c r="F5" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H5" s="2">
         <v>1001</v>
       </c>
-      <c r="G5" s="2">
-        <v>1002</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1003</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1004</v>
-      </c>
-      <c r="J5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="K5" s="4" t="s">
-        <v>28</v>
+      <c r="I5" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2">
         <v>250</v>
@@ -773,33 +1322,27 @@
         <v>30</v>
       </c>
       <c r="F6" s="2">
-        <v>1001</v>
-      </c>
-      <c r="G6" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
         <v>1002</v>
       </c>
-      <c r="H6" s="2">
-        <v>1003</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1004</v>
-      </c>
-      <c r="J6" s="2">
-        <v>1002</v>
-      </c>
-      <c r="K6" s="4" t="s">
-        <v>31</v>
+      <c r="I6" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D7" s="2">
         <v>250</v>
@@ -808,30 +1351,24 @@
         <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>1001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>1002</v>
+        <v>1.02</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
       </c>
       <c r="H7" s="2">
         <v>1003</v>
       </c>
-      <c r="I7" s="2">
-        <v>1004</v>
-      </c>
-      <c r="J7" s="2">
-        <v>1003</v>
-      </c>
-      <c r="K7" s="4" t="s">
-        <v>32</v>
+      <c r="I7" s="5" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:D15">
+  <sortState ref="A3:D15">
     <sortCondition ref="A5"/>
   </sortState>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.69930555555555596" right="0.69930555555555596" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait"/>
+  <headerFooter/>
 </worksheet>
 </file>
--- a/Tables/Sources/gameplay/Role/RoleConfig.xlsx
+++ b/Tables/Sources/gameplay/Role/RoleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="26490" windowHeight="10340"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -128,12 +128,12 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -149,29 +149,76 @@
       <charset val="134"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
-      <sz val="9"/>
-      <color theme="1"/>
-      <name val="微软雅黑"/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -185,29 +232,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -216,23 +240,47 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -240,68 +288,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -322,91 +308,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -418,25 +458,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -448,61 +482,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -531,11 +517,50 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top/>
       <bottom style="medium">
         <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -570,41 +595,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF7F7F7F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF7F7F7F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF7F7F7F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
       <top style="thin">
-        <color rgb="FFB2B2B2"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -617,27 +614,16 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -646,137 +632,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="20" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="9" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -787,10 +773,7 @@
     <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1144,23 +1127,23 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G2" sqref="G2"/>
+      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.625" style="3" customWidth="1"/>
-    <col min="4" max="5" width="7.375" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="6.25454545454545" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.25454545454545" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.6272727272727" style="3" customWidth="1"/>
+    <col min="4" max="5" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6272727272727" style="2" customWidth="1"/>
     <col min="7" max="7" width="21.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.375" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.375" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.37272727272727" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.3727272727273" style="2" customWidth="1"/>
     <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1189,7 +1172,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
@@ -1218,7 +1201,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
@@ -1238,16 +1221,16 @@
         <v>12</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I3" s="4" t="s">
+      <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
       <c r="A4" s="1" t="s">
         <v>13</v>
       </c>
@@ -1272,7 +1255,7 @@
       <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="I4" s="4" t="s">
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
     </row>
@@ -1301,7 +1284,7 @@
       <c r="H5" s="2">
         <v>1001</v>
       </c>
-      <c r="I5" s="5" t="s">
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1330,7 +1313,7 @@
       <c r="H6" s="2">
         <v>1002</v>
       </c>
-      <c r="I6" s="5" t="s">
+      <c r="I6" s="4" t="s">
         <v>25</v>
       </c>
     </row>
@@ -1359,7 +1342,7 @@
       <c r="H7" s="2">
         <v>1003</v>
       </c>
-      <c r="I7" s="5" t="s">
+      <c r="I7" s="4" t="s">
         <v>25</v>
       </c>
     </row>

--- a/Tables/Sources/gameplay/Role/RoleConfig.xlsx
+++ b/Tables/Sources/gameplay/Role/RoleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="26490" windowHeight="10340"/>
+    <workbookView windowWidth="28800" windowHeight="12540"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,11 +17,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>角色ID</t>
   </si>
   <si>
+    <t>角色类型</t>
+  </si>
+  <si>
     <t>角色名字</t>
   </si>
   <si>
@@ -59,6 +62,9 @@
   </si>
   <si>
     <t>RoleId</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>RoleName</t>
@@ -104,6 +110,9 @@
     </r>
   </si>
   <si>
+    <t>Front</t>
+  </si>
+  <si>
     <t>RoleA</t>
   </si>
   <si>
@@ -116,7 +125,13 @@
     <t>10011;10012;10013</t>
   </si>
   <si>
+    <t>Mid</t>
+  </si>
+  <si>
     <t>RoleB</t>
+  </si>
+  <si>
+    <t>Back</t>
   </si>
   <si>
     <t>RoleC</t>
@@ -127,11 +142,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -163,48 +178,95 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
       <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -216,9 +278,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -231,67 +307,6 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -308,13 +323,145 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -326,169 +473,37 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -532,35 +547,11 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,6 +567,15 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -609,8 +609,23 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -620,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,28 +1137,29 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G1" sqref="G1"/>
+      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="6.25454545454545" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.25454545454545" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.6272727272727" style="3" customWidth="1"/>
-    <col min="4" max="5" width="7.37272727272727" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6272727272727" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.37272727272727" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.3727272727273" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.25833333333333" style="2" customWidth="1"/>
+    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
+    <col min="3" max="3" width="9.25833333333333" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.625" style="3" customWidth="1"/>
+    <col min="5" max="6" width="7.375" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.375" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,183 +1187,204 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="13.5" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
         <v>250</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>30</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1.02</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
         <v>1001</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>25</v>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>250</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>30</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1.02</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2">
         <v>1002</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
+      <c r="J6" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>250</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>250</v>
-      </c>
-      <c r="E7" s="2">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>1003</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
+      <c r="J7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D15">
+  <sortState ref="A3:E15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Role/RoleConfig.xlsx
+++ b/Tables/Sources/gameplay/Role/RoleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="23040" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,14 +17,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
   <si>
     <t>角色ID</t>
   </si>
   <si>
-    <t>角色类型</t>
-  </si>
-  <si>
     <t>角色名字</t>
   </si>
   <si>
@@ -62,9 +59,6 @@
   </si>
   <si>
     <t>RoleId</t>
-  </si>
-  <si>
-    <t>Type</t>
   </si>
   <si>
     <t>RoleName</t>
@@ -110,28 +104,19 @@
     </r>
   </si>
   <si>
-    <t>Front</t>
-  </si>
-  <si>
     <t>RoleA</t>
   </si>
   <si>
     <t>A good guy.</t>
   </si>
   <si>
-    <t>1001;1002;1003;1004</t>
+    <t>100101;100401;100701;101301</t>
   </si>
   <si>
     <t>10011;10012;10013</t>
   </si>
   <si>
-    <t>Mid</t>
-  </si>
-  <si>
     <t>RoleB</t>
-  </si>
-  <si>
-    <t>Back</t>
   </si>
   <si>
     <t>RoleC</t>
@@ -142,11 +127,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="21">
     <font>
@@ -165,6 +150,35 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -172,83 +186,14 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -262,9 +207,40 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -278,23 +254,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -307,6 +269,29 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -323,187 +308,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -556,56 +541,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top/>
@@ -629,16 +564,66 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -647,133 +632,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="15" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1137,29 +1122,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:J7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="B8" sqref="B8"/>
+      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="6"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
-    <col min="1" max="1" width="6.25833333333333" style="2" customWidth="1"/>
-    <col min="2" max="2" width="8.5" style="2" customWidth="1"/>
-    <col min="3" max="3" width="9.25833333333333" style="3" customWidth="1"/>
-    <col min="4" max="4" width="25.625" style="3" customWidth="1"/>
-    <col min="5" max="6" width="7.375" style="2" customWidth="1"/>
-    <col min="7" max="7" width="14.625" style="2" customWidth="1"/>
-    <col min="8" max="8" width="21.5" style="2" customWidth="1"/>
-    <col min="9" max="9" width="7.375" style="2" customWidth="1"/>
-    <col min="10" max="10" width="19.375" style="2" customWidth="1"/>
-    <col min="11" max="16384" width="9" style="2"/>
+    <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
+    <col min="2" max="2" width="9.25" style="3" customWidth="1"/>
+    <col min="3" max="3" width="25.6296296296296" style="3" customWidth="1"/>
+    <col min="4" max="5" width="7.37037037037037" style="2" customWidth="1"/>
+    <col min="6" max="6" width="14.6296296296296" style="2" customWidth="1"/>
+    <col min="7" max="7" width="21.5" style="2" customWidth="1"/>
+    <col min="8" max="8" width="7.37037037037037" style="2" customWidth="1"/>
+    <col min="9" max="9" width="19.3703703703704" style="2" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1187,204 +1171,183 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="1" t="s">
+    </row>
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
+      <c r="A2" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="B2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A2" s="1" t="s">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
+      <c r="A3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="E3" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D2" s="1" t="s">
+      <c r="F3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="3" s="1" customFormat="1" ht="14.25" spans="1:10">
-      <c r="A3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>12</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="1" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="14.25" spans="1:10">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
       <c r="A4" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="D4" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="F4" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="F4" s="1" t="s">
+      <c r="G4" s="1" t="s">
         <v>19</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="H4" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="1" t="s">
+      <c r="I4" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="J4" s="1" t="s">
-        <v>23</v>
-      </c>
     </row>
-    <row r="5" spans="1:10">
+    <row r="5" spans="1:9">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" s="2">
+        <v>250</v>
+      </c>
+      <c r="E5" s="2">
+        <v>30</v>
+      </c>
+      <c r="F5" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="G5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C5" s="2" t="s">
+      <c r="H5" s="2">
+        <v>1037</v>
+      </c>
+      <c r="I5" s="4" t="s">
         <v>25</v>
       </c>
-      <c r="D5" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E5" s="2">
-        <v>250</v>
-      </c>
-      <c r="F5" s="2">
-        <v>30</v>
-      </c>
-      <c r="G5" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="H5" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I5" s="2">
-        <v>1001</v>
-      </c>
-      <c r="J5" s="4" t="s">
-        <v>28</v>
-      </c>
     </row>
-    <row r="6" spans="1:10">
+    <row r="6" spans="1:9">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C6" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" s="2">
+        <v>250</v>
+      </c>
+      <c r="E6" s="2">
         <v>30</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6" s="2">
-        <v>250</v>
-      </c>
       <c r="F6" s="2">
-        <v>30</v>
-      </c>
-      <c r="G6" s="2">
         <v>1.02</v>
       </c>
-      <c r="H6" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I6" s="2">
-        <v>1002</v>
-      </c>
-      <c r="J6" s="4" t="s">
-        <v>28</v>
+      <c r="G6" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1038</v>
+      </c>
+      <c r="I6" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
+    <row r="7" spans="1:9">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
+      </c>
+      <c r="D7" s="2">
+        <v>250</v>
       </c>
       <c r="E7" s="2">
-        <v>250</v>
+        <v>30</v>
       </c>
       <c r="F7" s="2">
-        <v>30</v>
-      </c>
-      <c r="G7" s="2">
         <v>1.02</v>
       </c>
-      <c r="H7" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="I7" s="2">
-        <v>1003</v>
-      </c>
-      <c r="J7" s="4" t="s">
-        <v>28</v>
+      <c r="G7" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1039</v>
+      </c>
+      <c r="I7" s="4" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:E15">
+  <sortState ref="A3:D15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/Tables/Sources/gameplay/Role/RoleConfig.xlsx
+++ b/Tables/Sources/gameplay/Role/RoleConfig.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="23040" windowHeight="9420"/>
+    <workbookView windowWidth="22368" windowHeight="9420"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="33">
   <si>
     <t>角色ID</t>
   </si>
@@ -25,6 +25,9 @@
     <t>角色名字</t>
   </si>
   <si>
+    <t>角色类型（Front-前排，Mid-中排，Back-后排）</t>
+  </si>
+  <si>
     <t>角色描述</t>
   </si>
   <si>
@@ -62,6 +65,9 @@
   </si>
   <si>
     <t>RoleName</t>
+  </si>
+  <si>
+    <t>Type</t>
   </si>
   <si>
     <t>RoleDsc</t>
@@ -107,6 +113,9 @@
     <t>RoleA</t>
   </si>
   <si>
+    <t>Front</t>
+  </si>
+  <si>
     <t>A good guy.</t>
   </si>
   <si>
@@ -119,7 +128,13 @@
     <t>RoleB</t>
   </si>
   <si>
+    <t>Mid</t>
+  </si>
+  <si>
     <t>RoleC</t>
+  </si>
+  <si>
+    <t>Back</t>
   </si>
 </sst>
 </file>
@@ -127,10 +142,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="21">
@@ -150,50 +165,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -207,6 +193,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
@@ -215,6 +208,21 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -225,22 +233,14 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -272,7 +272,22 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -308,6 +323,72 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFCC99"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -320,6 +401,54 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -332,61 +461,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -398,97 +479,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -535,6 +550,15 @@
       <left/>
       <right/>
       <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
@@ -545,7 +569,7 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4"/>
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -561,6 +585,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -582,30 +621,6 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -620,10 +635,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -632,133 +647,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="19" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="24" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="26" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1122,28 +1137,28 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:J7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="G13" sqref="G13"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4" outlineLevelRow="6"/>
   <cols>
     <col min="1" max="1" width="6.25" style="2" customWidth="1"/>
-    <col min="2" max="2" width="9.25" style="3" customWidth="1"/>
-    <col min="3" max="3" width="25.6296296296296" style="3" customWidth="1"/>
-    <col min="4" max="5" width="7.37037037037037" style="2" customWidth="1"/>
-    <col min="6" max="6" width="14.6296296296296" style="2" customWidth="1"/>
-    <col min="7" max="7" width="21.5" style="2" customWidth="1"/>
-    <col min="8" max="8" width="7.37037037037037" style="2" customWidth="1"/>
-    <col min="9" max="9" width="19.3703703703704" style="2" customWidth="1"/>
-    <col min="10" max="16384" width="9" style="2"/>
+    <col min="2" max="3" width="9.25" style="3" customWidth="1"/>
+    <col min="4" max="4" width="25.6296296296296" style="3" customWidth="1"/>
+    <col min="5" max="6" width="7.37037037037037" style="2" customWidth="1"/>
+    <col min="7" max="7" width="14.6296296296296" style="2" customWidth="1"/>
+    <col min="8" max="8" width="21.5" style="2" customWidth="1"/>
+    <col min="9" max="9" width="7.37037037037037" style="2" customWidth="1"/>
+    <col min="10" max="10" width="19.3703703703704" style="2" customWidth="1"/>
+    <col min="11" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="1" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1171,183 +1186,204 @@
       <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="2" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>10</v>
       </c>
     </row>
-    <row r="3" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="3" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A3" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C3" s="1" t="s">
+      <c r="F3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="D3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="F3" s="1" t="s">
+      <c r="G3" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>12</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>10</v>
       </c>
       <c r="I3" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="J3" s="1" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="4" s="1" customFormat="1" ht="12" spans="1:9">
+    <row r="4" s="1" customFormat="1" ht="12" spans="1:10">
       <c r="A4" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E4" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="G4" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>21</v>
+        <v>22</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="2">
         <v>1001</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D5" s="2">
+        <v>25</v>
+      </c>
+      <c r="D5" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E5" s="2">
         <v>250</v>
       </c>
-      <c r="E5" s="2">
+      <c r="F5" s="2">
         <v>30</v>
       </c>
-      <c r="F5" s="2">
+      <c r="G5" s="2">
         <v>1.02</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" s="2">
+      <c r="H5" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I5" s="2">
         <v>1037</v>
       </c>
-      <c r="I5" s="4" t="s">
-        <v>25</v>
+      <c r="J5" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="2">
         <v>1002</v>
       </c>
       <c r="B6" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D6" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="C6" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D6" s="2">
+      <c r="E6" s="2">
         <v>250</v>
       </c>
-      <c r="E6" s="2">
+      <c r="F6" s="2">
         <v>30</v>
       </c>
-      <c r="F6" s="2">
+      <c r="G6" s="2">
         <v>1.02</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H6" s="2">
+      <c r="H6" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" s="2">
         <v>1038</v>
       </c>
-      <c r="I6" s="4" t="s">
-        <v>25</v>
+      <c r="J6" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:9">
+    <row r="7" spans="1:10">
       <c r="A7" s="2">
         <v>1003</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E7" s="2">
+        <v>250</v>
+      </c>
+      <c r="F7" s="2">
+        <v>30</v>
+      </c>
+      <c r="G7" s="2">
+        <v>1.02</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="C7" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="D7" s="2">
-        <v>250</v>
-      </c>
-      <c r="E7" s="2">
-        <v>30</v>
-      </c>
-      <c r="F7" s="2">
-        <v>1.02</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="H7" s="2">
+      <c r="I7" s="2">
         <v>1039</v>
       </c>
-      <c r="I7" s="4" t="s">
-        <v>25</v>
+      <c r="J7" s="4" t="s">
+        <v>28</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A3:D15">
+  <sortState ref="A3:E15">
     <sortCondition ref="A5"/>
   </sortState>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
